--- a/biology/Zoologie/Corematodus_taeniatus/Corematodus_taeniatus.xlsx
+++ b/biology/Zoologie/Corematodus_taeniatus/Corematodus_taeniatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corematodus taeniatus est une espèce de poissons de la famille des Cichlidés. Elle est présente dans les lacs du Malawi et du Malombe ainsi que dans la rivière du Shire, qui relie ces deux lacs.
 </t>
